--- a/data/142/STANOR/03700 Harmonized index of consumer prices.xlsx
+++ b/data/142/STANOR/03700 Harmonized index of consumer prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
   <x:si>
     <x:t>03700: Harmonized index of consumer prices (2015=100), by month, consumption group and contents</x:t>
   </x:si>
@@ -958,19 +958,28 @@
     <x:t>2021M11</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M02</x:t>
+  </x:si>
+  <x:si>
     <x:t>Revised figures from August 2003 to November 2003. From January 2011 the HICP weights are based on National Accounts data.</x:t>
   </x:si>
   <x:si>
     <x:t>Some price indices for services are based on estimated values as of April 2020. For more details see footnotes table 03013.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Harmonized index of consumer prices:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211210 08:00</x:t>
+    <x:t>20220310 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1411,14 +1420,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B356"/>
+  <x:dimension ref="A1:B359"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="34.630625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -3924,132 +3932,160 @@
         <x:v>119.5</x:v>
       </x:c>
     </x:row>
+    <x:row r="316" spans="1:2">
+      <x:c r="A316" s="2" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="B316" s="3" t="n">
+        <x:v>120.5</x:v>
+      </x:c>
+    </x:row>
     <x:row r="317" spans="1:2">
-      <x:c r="A317" s="4" t="s">
-        <x:v>314</x:v>
+      <x:c r="A317" s="2" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="B317" s="3" t="n">
+        <x:v>118.5</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:2">
-      <x:c r="A318" s="4" t="s">
-        <x:v>315</x:v>
+      <x:c r="A318" s="2" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="B318" s="3" t="n">
+        <x:v>119.9</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:2">
-      <x:c r="A320" s="0" t="s">
-        <x:v>316</x:v>
+      <x:c r="A320" s="4" t="s">
+        <x:v>317</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:2">
-      <x:c r="A321" s="0" t="s">
-        <x:v>317</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="322" spans="1:2">
-      <x:c r="A322" s="0" t="s">
+      <x:c r="A321" s="4" t="s">
         <x:v>318</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="323" spans="1:2">
+      <x:c r="A323" s="0" t="s">
+        <x:v>319</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:2">
       <x:c r="A324" s="0" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:2">
       <x:c r="A325" s="0" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:2">
       <x:c r="A327" s="0" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:2">
       <x:c r="A328" s="0" t="s">
-        <x:v>317</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="329" spans="1:2">
-      <x:c r="A329" s="0" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:2">
       <x:c r="A330" s="0" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:2">
       <x:c r="A331" s="0" t="s">
-        <x:v>324</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="335" spans="1:2">
-      <x:c r="A335" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="332" spans="1:2">
+      <x:c r="A332" s="0" t="s">
         <x:v>325</x:v>
       </x:c>
     </x:row>
-    <x:row r="337" spans="1:2">
-      <x:c r="A337" s="0" t="s">
+    <x:row r="333" spans="1:2">
+      <x:c r="A333" s="0" t="s">
         <x:v>326</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="334" spans="1:2">
+      <x:c r="A334" s="0" t="s">
+        <x:v>327</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:2">
       <x:c r="A338" s="0" t="s">
-        <x:v>317</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="339" spans="1:2">
-      <x:c r="A339" s="0" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:2">
       <x:c r="A340" s="0" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:2">
       <x:c r="A341" s="0" t="s">
-        <x:v>317</x:v>
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="1:2">
       <x:c r="A342" s="0" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="343" spans="1:2">
+      <x:c r="A343" s="0" t="s">
+        <x:v>331</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="344" spans="1:2">
+      <x:c r="A344" s="0" t="s">
+        <x:v>320</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:2">
       <x:c r="A345" s="0" t="s">
-        <x:v>317</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="346" spans="1:2">
-      <x:c r="A346" s="0" t="s">
-        <x:v>330</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="352" spans="1:2">
-      <x:c r="A352" s="0" t="s">
-        <x:v>331</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="353" spans="1:2">
-      <x:c r="A353" s="0" t="s">
         <x:v>332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="348" spans="1:2">
+      <x:c r="A348" s="0" t="s">
+        <x:v>320</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="349" spans="1:2">
+      <x:c r="A349" s="0" t="s">
+        <x:v>333</x:v>
       </x:c>
     </x:row>
     <x:row r="355" spans="1:2">
       <x:c r="A355" s="0" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="356" spans="1:2">
       <x:c r="A356" s="0" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="358" spans="1:2">
+      <x:c r="A358" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="359" spans="1:2">
+      <x:c r="A359" s="0" t="s">
+        <x:v>337</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A320:B320"/>
+    <x:mergeCell ref="A321:B321"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
